--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:32:23+10:00</t>
+    <t>2024-06-13T06:51:52+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:51:52+10:00</t>
+    <t>2024-06-13T11:16:16+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3183,7 +3183,7 @@
     <t>sliceODHPastOrPresentJob</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/odh-PastOrPresentJob)
+    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-past-or-present-job)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-14T06:31:35+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-18T16:49:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -950,7 +950,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-practitionerrole|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-practitioner|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-organization|Device)
+    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-practitionerrole|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-practitioner|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele-addr|Device)
 </t>
   </si>
   <si>
@@ -1162,7 +1162,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-telecom)
+    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele)
 </t>
   </si>
   <si>
@@ -3296,13 +3296,13 @@
     <t>Country of nationality entry</t>
   </si>
   <si>
-    <t>Composition.section:sliceSocialHistorySection.entry:sliceCalculatedAge</t>
-  </si>
-  <si>
-    <t>sliceCalculatedAge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/caculated-age-observation)
+    <t>Composition.section:sliceSocialHistorySection.entry:sliceEICRAnonymizedCalculatedAge</t>
+  </si>
+  <si>
+    <t>sliceEICRAnonymizedCalculatedAge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-caculated-age)
 </t>
   </si>
   <si>
@@ -4122,7 +4122,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="246.1875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="246.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T16:49:21+10:00</t>
+    <t>2024-06-18T18:40:58+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T18:40:58+10:00</t>
+    <t>2024-06-21T10:51:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T10:51:28+10:00</t>
+    <t>2024-06-21T11:31:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T11:31:43+10:00</t>
+    <t>2024-06-25T09:09:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1162,11 +1162,11 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/ecr/StructureDefinition/us-ph-organization)
 </t>
   </si>
   <si>
-    <t>References the eICR Anonymized Organization - Telecom</t>
+    <t>Organization which maintains the composition</t>
   </si>
   <si>
     <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the composition/document information.</t>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:09:40+10:00</t>
+    <t>2024-06-26T05:55:02+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -950,7 +950,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-practitionerrole|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-practitioner|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele-addr|Device)
+    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-practitionerrole|http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-practitioner|http://hl7.org/fhir/us/ecr/StructureDefinition/us-ph-organization|Device)
 </t>
   </si>
   <si>
@@ -4122,7 +4122,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="246.90625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="230.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T05:55:02+10:00</t>
+    <t>2024-06-26T06:31:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -954,7 +954,7 @@
 </t>
   </si>
   <si>
-    <t>References the eICR Anonymized PractitionerRole, eICR Anonymized Practitioner, eICR Anonymized Organization, or Device</t>
+    <t>References the eICR Anonymized PractitionerRole, eICR Anonymized Practitioner, US Public Health Organization, or Device</t>
   </si>
   <si>
     <t>It is possible to have multiple authors - especially in the case where the default author is the organization. For public health reporting this could contain the contact details for the Infection Control Professional (ICP) specific to the condition being reported on. If the main author of the document is not a person, it is recommended to have an additional person author contact who is specific for a disease for follow-up requirements. This person could be the ICP. Where a trigger occurs outside of an encounter the author will represent the Provider and Facility for reporting purposes.</t>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:31:28+10:00</t>
+    <t>2024-06-26T06:54:29+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T19:57:37+10:00</t>
+    <t>2024-06-28T20:58:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-composition.xlsx
+++ b/output/StructureDefinition-eicr-anon-composition.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T20:58:40+10:00</t>
+    <t>2024-06-29T16:05:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -414,7 +414,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {exists() implies `div`.toString().matches('&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;\\s*&lt;p&gt;MASKED&lt;/p&gt;\\s*&lt;/div&gt;')}</t>
   </si>
   <si>
     <t>Act.text?</t>
